--- a/RPA_BMW/config.xlsx
+++ b/RPA_BMW/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\UiPath\RPA_BMW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152EEA2C-20C3-4846-9079-43FDD1412892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5B17B5-08AA-4E02-9388-AE3C5932383E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/RPA_BMW/config.xlsx
+++ b/RPA_BMW/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\UiPath\RPA_BMW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Uipath Projects\BMW Rpa\RPA_BMW\RPA_BMW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5B17B5-08AA-4E02-9388-AE3C5932383E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADC5D1A-E3EA-4485-82A9-3F4849C73AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Email Account(0)</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>rpabot@bmwelectricalservices.com.au</t>
+  </si>
+  <si>
+    <t>AGL Econnect</t>
+  </si>
+  <si>
+    <t>AGL Econnect Password</t>
   </si>
 </sst>
 </file>
@@ -389,24 +395,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="32.26953125" customWidth="1"/>
+    <col min="4" max="4" width="37.54296875" customWidth="1"/>
+    <col min="5" max="5" width="30.7265625" customWidth="1"/>
+    <col min="6" max="6" width="36.54296875" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,8 +436,14 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -449,12 +463,19 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{C7A8DB63-AE5A-4DC2-B782-84E76EFCEAAC}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{D6C38626-73C5-414B-B687-BFDFAB6A1952}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
